--- a/stationarity_test/KLDivergenceTest/FeedbackLog/p3-faa-0ms.xlsx
+++ b/stationarity_test/KLDivergenceTest/FeedbackLog/p3-faa-0ms.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\imMens Learning\stationarity_test\KLDivergenceTest\FeedbackLog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B014567-B16D-45E5-9626-99F49F0C844F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C73084-1E78-4C78-ADBF-29E9D616578F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -398,11 +398,13 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -438,7 +440,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -453,16 +455,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="21" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -6939,9 +6941,9 @@
   </sheetPr>
   <dimension ref="A1:K959"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A42" sqref="A42"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="125" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
